--- a/Data/Relatório_Analítico.xlsx
+++ b/Data/Relatório_Analítico.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>...</x:t>
   </x:si>
@@ -65,31 +65,22 @@
     <x:t>917526</x:t>
   </x:si>
   <x:si>
-    <x:t>28/03/2022 15:34:41</x:t>
+    <x:t>29/03/2022 13:38:40</x:t>
   </x:si>
   <x:si>
-    <x:t>28/03/2022 15:35:27</x:t>
+    <x:t>29/03/2022 13:40:27</x:t>
   </x:si>
   <x:si>
-    <x:t>Failed</x:t>
+    <x:t>Successful</x:t>
   </x:si>
   <x:si>
-    <x:t>System Exception</x:t>
+    <x:t>50781</x:t>
   </x:si>
   <x:si>
-    <x:t>Object reference not set to an instance of an object.</x:t>
+    <x:t>29/03/2022 13:40:28</x:t>
   </x:si>
   <x:si>
-    <x:t>909986</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28/03/2022 15:36:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28/03/2022 15:36:59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28/03/2022 15:38:00</x:t>
+    <x:t>29/03/2022 13:42:06</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -842,72 +833,40 @@
       <x:c r="D6" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E6" s="4" t="s">
+      <x:c r="E6" s="4" t="s"/>
+      <x:c r="F6" s="4" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F6" s="4" t="s">
+      <x:c r="B7" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="C7" s="3" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E7" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F7" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
+      <x:c r="E7" s="4" t="s"/>
+      <x:c r="F7" s="4" t="s"/>
     </x:row>
     <x:row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F8" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="2" t="s"/>
+      <x:c r="C8" s="3" t="s"/>
+      <x:c r="D8" s="2" t="s"/>
+      <x:c r="E8" s="4" t="s"/>
+      <x:c r="F8" s="4" t="s"/>
     </x:row>
     <x:row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E9" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F9" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
+      <x:c r="A9" s="2" t="s"/>
+      <x:c r="B9" s="2" t="s"/>
+      <x:c r="C9" s="3" t="s"/>
+      <x:c r="D9" s="2" t="s"/>
+      <x:c r="E9" s="4" t="s"/>
+      <x:c r="F9" s="4" t="s"/>
     </x:row>
     <x:row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A10" s="2" t="s"/>
